--- a/CFC/Docs/需求/金好算功能需求.xlsx
+++ b/CFC/Docs/需求/金好算功能需求.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ftisorgtw-my.sharepoint.com/personal/ivan_taiglobal_com_tw/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="178" documentId="8_{81D77189-87AB-4FF5-B3F8-EFD65E6F63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3DE04652-6B4D-43C0-AABD-6EC8912AFD60}"/>
+  <xr:revisionPtr revIDLastSave="189" documentId="8_{81D77189-87AB-4FF5-B3F8-EFD65E6F63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E009797-9C98-4F39-8275-9528DB89AF35}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="製造業及非製造業" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$21</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -476,7 +479,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -491,6 +494,12 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1960,8 +1969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2009,79 +2018,82 @@
     </row>
     <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D2" s="1">
-        <v>3</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>10</v>
+        <v>1</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G2" s="5">
+        <v>1</v>
+      </c>
+      <c r="H2" s="6">
+        <v>45539</v>
+      </c>
     </row>
-    <row r="3" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>9</v>
+      <c r="E3" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>22</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>26</v>
       </c>
       <c r="D4" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>10</v>
@@ -2092,16 +2104,16 @@
     </row>
     <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E6" s="3" t="s">
         <v>10</v>
@@ -2110,18 +2122,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="D7" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>10</v>
@@ -2130,18 +2142,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="D8" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>10</v>
@@ -2150,18 +2162,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
-        <v>8</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D9" s="1">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>10</v>
@@ -2172,13 +2184,13 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
+        <v>7</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="D10" s="1">
         <v>2</v>
@@ -2188,20 +2200,23 @@
       </c>
       <c r="F10" s="1" t="s">
         <v>16</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="D11" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>10</v>
@@ -2210,18 +2225,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D12" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>10</v>
@@ -2229,19 +2244,25 @@
       <c r="F12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="G12" s="5">
+        <v>1</v>
+      </c>
+      <c r="H12" s="6">
+        <v>45539</v>
+      </c>
     </row>
-    <row r="13" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D13" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>10</v>
@@ -2252,16 +2273,16 @@
     </row>
     <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="D14" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>10</v>
@@ -2270,18 +2291,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>29</v>
+        <v>8</v>
       </c>
       <c r="D15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>10</v>
@@ -2290,18 +2311,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
+        <v>5</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>30</v>
-      </c>
       <c r="D16" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>10</v>
@@ -2310,18 +2331,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="41.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>22</v>
+        <v>7</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="D17" s="1">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>10</v>
@@ -2330,15 +2351,15 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
+        <v>7</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>33</v>
+      <c r="C18" s="2" t="s">
+        <v>19</v>
       </c>
       <c r="D18" s="1">
         <v>4</v>
@@ -2352,13 +2373,13 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
-        <v>18</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>35</v>
+        <v>8</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="1">
         <v>4</v>
@@ -2370,18 +2391,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="55.2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>33</v>
       </c>
       <c r="D20" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E20" s="3" t="s">
         <v>10</v>
@@ -2390,18 +2411,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>35</v>
       </c>
       <c r="D21" s="1">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E21" s="3" t="s">
         <v>10</v>
@@ -2411,6 +2432,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:I21" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
+      <sortCondition ref="D1:D21"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CFC/Docs/需求/金好算功能需求.xlsx
+++ b/CFC/Docs/需求/金好算功能需求.xlsx
@@ -5,19 +5,19 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ftisorgtw-my.sharepoint.com/personal/ivan_taiglobal_com_tw/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\CFC\CFC\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="189" documentId="8_{81D77189-87AB-4FF5-B3F8-EFD65E6F63EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6E009797-9C98-4F39-8275-9528DB89AF35}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924E159-F218-42FD-8C5B-F7607282D0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
     <sheet name="製造業及非製造業" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$I$21</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">工作表1!$A$1:$J$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
   <si>
     <t>需求名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -399,6 +399,14 @@
       </rPr>
       <t>類別三-六</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提出日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>測試中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1644,10 +1652,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1967,474 +1971,604 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="1"/>
+    <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="30.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5">
+      <c r="H3" s="5">
         <v>1</v>
       </c>
-      <c r="H2" s="6">
+      <c r="I3" s="6">
         <v>45539</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="1">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="G4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="1">
+        <v>4</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="1">
+        <v>2</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5">
+        <v>1</v>
+      </c>
+      <c r="I10" s="6">
+        <v>45539</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E11" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H11" s="5">
+        <v>1</v>
+      </c>
+      <c r="I11" s="6">
+        <v>45540</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="4" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
+    <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B12" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E12" s="1">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H12" s="5">
+        <v>1</v>
+      </c>
+      <c r="I12" s="6">
+        <v>45544</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="5" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
+    <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B13" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="D13" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E13" s="1">
         <v>1</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H13" s="5">
+        <v>1</v>
+      </c>
+      <c r="I13" s="6">
+        <v>45544</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="6" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
+    <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B14" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E14" s="1">
         <v>1</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H14" s="5">
+        <v>1</v>
+      </c>
+      <c r="I14" s="6">
+        <v>45544</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="7" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
+    <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B15" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E15" s="1">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H15" s="5">
+        <v>1</v>
+      </c>
+      <c r="I15" s="6">
+        <v>45544</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
+    <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B16" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="D16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E16" s="1">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H16" s="5">
+        <v>1</v>
+      </c>
+      <c r="I16" s="6">
+        <v>45544</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="9" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
+    <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B17" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D17" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E17" s="1">
         <v>1</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>16</v>
       </c>
+      <c r="H17" s="5">
+        <v>1</v>
+      </c>
+      <c r="I17" s="6">
+        <v>45544</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>3</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="1">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E19" s="1">
+        <v>4</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="1">
         <v>2</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>36</v>
-      </c>
     </row>
-    <row r="11" spans="1:9" ht="41.4" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>4</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="1">
+    <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6">
+        <v>45537</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="1">
         <v>2</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F11" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>9</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="1">
-        <v>2</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="G12" s="5">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>45539</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="55.2" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>19</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D13" s="1">
-        <v>2</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1">
-        <v>20</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1">
-        <v>2</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1">
-        <v>1</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D15" s="1">
-        <v>3</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D16" s="1">
-        <v>4</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="1">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D17" s="1">
-        <v>4</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="27.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="1">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="1">
-        <v>4</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="1">
-        <v>8</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="1">
-        <v>4</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="1">
-        <v>17</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="1">
-        <v>4</v>
-      </c>
-      <c r="E20" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="1">
-        <v>18</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="D21" s="1">
-        <v>4</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F21" s="1" t="s">
+      <c r="G21" s="1" t="s">
         <v>16</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I21" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I21">
-      <sortCondition ref="D1:D21"/>
+  <autoFilter ref="A1:J21" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J21">
+      <sortCondition ref="A1:A21"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/CFC/Docs/需求/金好算功能需求.xlsx
+++ b/CFC/Docs/需求/金好算功能需求.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\CFC\CFC\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7924E159-F218-42FD-8C5B-F7607282D0C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281EC10-85C0-49BE-8C21-CDD35F4EB227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="54">
   <si>
     <t>需求名稱</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,10 +87,6 @@
   </si>
   <si>
     <t>帳密符號問題，若用符號建立帳號，登入時會失敗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>分成製造業、非製造業</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -407,6 +403,68 @@
   </si>
   <si>
     <t>測試中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel匯出功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>待低碳組9/13提供樣版檔</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(1)	自註冊源頭進行分流，會員註冊資料欄位包含如下：
+A.	共通欄位：統一編號、單位名稱、行業別、規模
+B.	製造業會員：需依所登記廠數填寫對應工廠資料(包括工廠名稱、工廠登記證、工廠地址、產業園區、產業別)
+C.	非製造業會員：需填寫單位性質(包括一般公司/管顧公司/法人/學校/其他)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>會員功能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>維護已申請會員的歷史資料，需配合新會員資料欄位執行轉檔作業，讓舊會員可正常使用系統功能。
+針對會員資料需補充時，系統自動判別需於登入時驗證，並強制輸入儲存。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>資料儲存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>針對計算結果會員於系統儲存為專案時，需填寫命名欄位及備註欄位；製造業會員系統需具額外製作下拉式選單，選單內容應呈現該名會員於註冊時所登載之工廠名稱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>後台管理界面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依據會員所選工廠，系統需將當筆計算結果與工廠進行實名勾稽，並寫入後台紀錄，以利數據分析面板導入參數時，可識別目標資料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Excel匯出格式修改，如下
+盤查清冊內容調整，新版清冊應包含工廠資料、排放源鑑別、排放量計算、碳盤查彙整表等4組表單，功能需求如下：
+A.	工廠資料：依據下載清冊時所配對之工廠自動帶入內容
+B.	排放源鑑別：依據會員所填寫計算欄位，自動篩選溫室氣體種類後進行製表
+C.	排放量計算：依據會員所填寫計算欄位涉及之排放源資料(含原燃料或產品名稱、範疇別、排放形式)、年活動數據資料(含活動數據、活動數據單位)、溫室氣體排放係數(含CO2/CH4/N2O排放量、GWP值)、單一排放源排放當量小計、單一排放源排放占比等進行製表
+D.	碳盤查彙整表：使用全廠溫室氣體排放量、類別一溫室氣體排放量、全廠排放形式排放量等3種彙整方式進行統計後製表</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>針對前台使用情境設計可編輯功能(含係數管理、IPCC AR版本管理、使用提示)之計算模組，其功能至少如下：
+A.	係數管理涉及系統自動運算公式，需依據類別一(燃料、冷媒逸散、其他逸散、特殊製程)、類別二(電力)所涉及CO2/CH4/N2O係數設計填寫欄位
+B.	針對IPCC AR版本(AR4/AR5/AR6)對應之GWP值設計填寫欄位
+C.	管理者可編輯系統計算前提示說明，如使用前的貼心提醒、計算類別提示內容等，依需求設計圖片與文字顯示</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>針對業務單位需求設計管理頁面(含會員資料管理、專案管理、數據分析面板)之管理模組，其功能至少如下：
+A.	會員資料管理需依據註冊資料，分別製作製造業及非製造業2組管理介面(含內容編輯、檔案匯出功能)
+B.	專案管理需有會員計算紀錄明細查詢及數據分析面板2組管理介面，其中分析部份需包含排放量加總統計(可篩選行業、地區、產業園區)及個案工廠比較</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1971,10 +2029,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1982,22 +2040,22 @@
     <col min="1" max="1" width="3.77734375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="30.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="52.109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="7.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="17.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="9.109375" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>0</v>
@@ -2015,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>5</v>
@@ -2044,7 +2102,7 @@
         <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2067,7 +2125,7 @@
         <v>9</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H3" s="5">
         <v>1</v>
@@ -2076,18 +2134,18 @@
         <v>45539</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="82.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="6">
-        <v>45537</v>
+        <v>45541</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>12</v>
+      <c r="D4" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="E4" s="1">
         <v>2</v>
@@ -2096,10 +2154,10 @@
         <v>10</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2113,7 +2171,7 @@
         <v>7</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
         <v>2</v>
@@ -2122,7 +2180,7 @@
         <v>10</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2136,7 +2194,7 @@
         <v>7</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E6" s="1">
         <v>4</v>
@@ -2145,7 +2203,7 @@
         <v>10</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -2159,7 +2217,7 @@
         <v>7</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
         <v>4</v>
@@ -2168,7 +2226,7 @@
         <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2179,10 +2237,10 @@
         <v>45537</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E8" s="1">
         <v>4</v>
@@ -2191,7 +2249,7 @@
         <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
@@ -2202,10 +2260,10 @@
         <v>45537</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E9" s="1">
         <v>4</v>
@@ -2214,7 +2272,7 @@
         <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -2225,10 +2283,10 @@
         <v>45537</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E10" s="1">
         <v>2</v>
@@ -2237,7 +2295,7 @@
         <v>10</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H10" s="5">
         <v>1</v>
@@ -2246,7 +2304,7 @@
         <v>45539</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2257,10 +2315,10 @@
         <v>45537</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E11" s="1">
         <v>1</v>
@@ -2269,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H11" s="5">
         <v>1</v>
@@ -2278,7 +2336,7 @@
         <v>45540</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="12" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2289,10 +2347,10 @@
         <v>45537</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E12" s="1">
         <v>1</v>
@@ -2301,7 +2359,7 @@
         <v>10</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H12" s="5">
         <v>1</v>
@@ -2310,7 +2368,7 @@
         <v>45544</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2321,10 +2379,10 @@
         <v>45537</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E13" s="1">
         <v>1</v>
@@ -2333,7 +2391,7 @@
         <v>10</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H13" s="5">
         <v>1</v>
@@ -2342,7 +2400,7 @@
         <v>45544</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2353,10 +2411,10 @@
         <v>45537</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E14" s="1">
         <v>1</v>
@@ -2365,7 +2423,7 @@
         <v>10</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H14" s="5">
         <v>1</v>
@@ -2374,7 +2432,7 @@
         <v>45544</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2385,10 +2443,10 @@
         <v>45537</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E15" s="1">
         <v>1</v>
@@ -2397,7 +2455,7 @@
         <v>10</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H15" s="5">
         <v>1</v>
@@ -2406,7 +2464,7 @@
         <v>45544</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2417,10 +2475,10 @@
         <v>45537</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="1">
         <v>1</v>
@@ -2429,7 +2487,7 @@
         <v>10</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H16" s="5">
         <v>1</v>
@@ -2438,7 +2496,7 @@
         <v>45544</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
@@ -2449,10 +2507,10 @@
         <v>45537</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E17" s="1">
         <v>1</v>
@@ -2461,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>16</v>
+        <v>41</v>
       </c>
       <c r="H17" s="5">
         <v>1</v>
@@ -2470,7 +2528,7 @@
         <v>45544</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.3">
@@ -2481,10 +2539,10 @@
         <v>45537</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>33</v>
       </c>
       <c r="E18" s="1">
         <v>4</v>
@@ -2493,7 +2551,7 @@
         <v>10</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.3">
@@ -2504,10 +2562,10 @@
         <v>45537</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="E19" s="1">
         <v>4</v>
@@ -2516,7 +2574,7 @@
         <v>10</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
@@ -2527,10 +2585,10 @@
         <v>45537</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>39</v>
       </c>
       <c r="E20" s="1">
         <v>2</v>
@@ -2539,7 +2597,7 @@
         <v>10</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
@@ -2550,10 +2608,10 @@
         <v>45537</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E21" s="1">
         <v>2</v>
@@ -2562,7 +2620,136 @@
         <v>10</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" ht="190.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="6">
+        <v>45541</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E22" s="1">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="55.2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="6">
+        <v>45541</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="E23" s="1">
+        <v>4</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B24" s="6">
+        <v>45541</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="41.4" x14ac:dyDescent="0.3">
+      <c r="B25" s="6">
+        <v>45541</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="124.2" x14ac:dyDescent="0.3">
+      <c r="B26" s="6">
+        <v>45541</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="E26" s="1">
+        <v>4</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="96.6" x14ac:dyDescent="0.3">
+      <c r="B27" s="6">
+        <v>45541</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/CFC/Docs/需求/金好算功能需求.xlsx
+++ b/CFC/Docs/需求/金好算功能需求.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceCode\CFC\CFC\Docs\需求\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7281EC10-85C0-49BE-8C21-CDD35F4EB227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14D96990-F095-4FB2-B6A1-0A8EFE073D5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{8BE54A2B-DE1F-48A6-A156-5A8B01721ED5}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -2031,8 +2031,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F3DED75-4B99-4CF4-8A27-21A371C36B49}">
   <dimension ref="A1:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -2767,7 +2767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DB096E-0543-404E-8FD0-3F9D2ADBD50D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
